--- a/Feuille_client.xlsx
+++ b/Feuille_client.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal ID</t>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Fiscal</t>
   </si>
   <si>
     <t xml:space="preserve">Contact</t>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Address</t>
+    <t xml:space="preserve">Adresse</t>
   </si>
   <si>
     <t xml:space="preserve">Bill</t>
@@ -123,12 +123,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -324,38 +328,38 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
